--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/DailyReport.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/DailyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\ExcelReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7317A42-B638-4A7D-89F0-09988666C9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83BD43B-6EF2-4FEB-837C-349E668D119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{21EA2AD6-FE5B-42AD-AE04-C86E3020F209}"/>
+    <workbookView xWindow="5666" yWindow="11554" windowWidth="25860" windowHeight="13055" xr2:uid="{21EA2AD6-FE5B-42AD-AE04-C86E3020F209}"/>
   </bookViews>
   <sheets>
     <sheet name="M01" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
   <dimension ref="B1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>

--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/DailyReport.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/DailyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83BD43B-6EF2-4FEB-837C-349E668D119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E968FF1-100D-43F2-886E-11A80BEA2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5666" yWindow="11554" windowWidth="25860" windowHeight="13055" xr2:uid="{21EA2AD6-FE5B-42AD-AE04-C86E3020F209}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{21EA2AD6-FE5B-42AD-AE04-C86E3020F209}"/>
   </bookViews>
   <sheets>
     <sheet name="M01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>易增股份有限公司</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>A502_x000D_
-PH值</t>
-  </si>
-  <si>
-    <t>A502_x000D_
 差壓</t>
   </si>
   <si>
@@ -260,6 +256,27 @@
   </si>
   <si>
     <t>報表日期：{0}年{1}月{2}日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.58~2.45</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A502
+pH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>值</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,6 +327,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -841,7 +865,7 @@
   <dimension ref="B1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -911,15 +935,15 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="2:17" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="2:17" ht="25.3" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" ht="25.75" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -949,101 +973,103 @@
         <v>11</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1051,7 +1077,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1071,7 +1097,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1091,7 +1117,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1111,7 +1137,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1131,7 +1157,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1151,7 +1177,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1171,7 +1197,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1191,7 +1217,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1211,7 +1237,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1231,7 +1257,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1251,7 +1277,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1271,7 +1297,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1291,7 +1317,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1311,7 +1337,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1331,7 +1357,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1351,7 +1377,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1371,7 +1397,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1391,7 +1417,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1411,7 +1437,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1431,7 +1457,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1451,7 +1477,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1471,7 +1497,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1491,7 +1517,7 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1511,7 +1537,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1531,7 +1557,7 @@
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1551,7 +1577,7 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1571,7 +1597,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1591,7 +1617,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1611,7 +1637,7 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1631,7 +1657,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1651,7 +1677,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1671,7 +1697,7 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/DailyReport.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/DailyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E968FF1-100D-43F2-886E-11A80BEA2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7B1C4C-D2BA-499B-80E2-D0CF36CBD807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{21EA2AD6-FE5B-42AD-AE04-C86E3020F209}"/>
+    <workbookView xWindow="6557" yWindow="2769" windowWidth="26357" windowHeight="13054" xr2:uid="{21EA2AD6-FE5B-42AD-AE04-C86E3020F209}"/>
   </bookViews>
   <sheets>
     <sheet name="M01" sheetId="1" r:id="rId1"/>
@@ -284,6 +284,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -493,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +550,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0897718-5C20-4BD0-A9E4-4BC4D614F1DD}">
   <dimension ref="B1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -1619,21 +1628,21 @@
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="9"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="s">
